--- a/www/ig/nos/ValueSet-JDV-J171-TypeAutorisation-EPARS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J171-TypeAutorisation-EPARS.xlsx
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.6.1.232</t>
+    <t>urn:oid:1.2.250.1.213.1.6.1.232</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/www/ig/nos/ValueSet-JDV-J171-TypeAutorisation-EPARS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J171-TypeAutorisation-EPARS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T12:00:00+01:00</t>
+    <t>2024-03-29T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -216,7 +222,10 @@
     <t>Autorisation d'exercice psychothérapeute médecin</t>
   </si>
   <si>
-    <t/>
+    <t>AM41</t>
+  </si>
+  <si>
+    <t>Agrément de radiophysicien avant le 28/11/2004</t>
   </si>
   <si>
     <t>System URI</t>
@@ -356,7 +365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -462,20 +471,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -485,7 +502,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -497,186 +514,194 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>69</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J171-TypeAutorisation-EPARS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J171-TypeAutorisation-EPARS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T12:00:00+01:00</t>
+    <t>2023-03-31T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,160 +72,151 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>ANS (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Types d'autorisation d'exercice pour EPARS</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>AM01</t>
+  </si>
+  <si>
+    <t>Autorisation de plein exercice</t>
+  </si>
+  <si>
+    <t>AM14</t>
+  </si>
+  <si>
+    <t>Arrangement France-Québec (art L 4111-3-1 CSP)</t>
+  </si>
+  <si>
+    <t>AM22</t>
+  </si>
+  <si>
+    <t>Agrément Caisse Régionale d'Assurance Maladie</t>
+  </si>
+  <si>
+    <t>AM23</t>
+  </si>
+  <si>
+    <t>Agrément Ministère des anciens combattants</t>
+  </si>
+  <si>
+    <t>AM24</t>
+  </si>
+  <si>
+    <t>Exerce comme tech lab avant le 08/11/1976</t>
+  </si>
+  <si>
+    <t>AM25</t>
+  </si>
+  <si>
+    <t>Exerce comme tech lab au 29/11/1997</t>
+  </si>
+  <si>
+    <t>AM26</t>
+  </si>
+  <si>
+    <t>Exerce comme tech lab au 30/05/2013</t>
+  </si>
+  <si>
+    <t>AM27</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice UE/EEE</t>
+  </si>
+  <si>
+    <t>AM28</t>
+  </si>
+  <si>
+    <t>Autorisation d'user du titre d'Ostéopathe</t>
+  </si>
+  <si>
+    <t>AM29</t>
+  </si>
+  <si>
+    <t>Autorisation titre diététicien décision admin 86</t>
+  </si>
+  <si>
+    <t>AM30</t>
+  </si>
+  <si>
+    <t>Autorisation titre diététicien emploi permanent 86</t>
+  </si>
+  <si>
+    <t>AM31</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice de psychologue diplôme étranger</t>
+  </si>
+  <si>
+    <t>AM32</t>
+  </si>
+  <si>
+    <t>Autorisation préfectorale d'exercice de psychologue décret 90-259</t>
+  </si>
+  <si>
+    <t>AM33</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice de psychothérapeute pour médecin spécialisé psychiatrie</t>
+  </si>
+  <si>
+    <t>AM34</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice d'audioprothésiste médecin</t>
+  </si>
+  <si>
+    <t>AM35</t>
+  </si>
+  <si>
+    <t>Autorisation d'user du titre de Chiropraxie</t>
+  </si>
+  <si>
+    <t>AM36</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice d'épithésiste pour chirurgien-dentiste</t>
+  </si>
+  <si>
+    <t>AM37</t>
+  </si>
+  <si>
+    <t>Autorisation épithésiste pour médecin stomatologue ou chirurgie maxillo-faciale</t>
+  </si>
+  <si>
+    <t>AM38</t>
+  </si>
+  <si>
+    <t>Arrêté de nomination de MER du Secteur Public</t>
+  </si>
+  <si>
+    <t>AM39</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice psychothérapeute médecin</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Types d'autorisation d'exercice pour EPARS</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>AM01</t>
-  </si>
-  <si>
-    <t>Autorisation de plein exercice</t>
-  </si>
-  <si>
-    <t>AM14</t>
-  </si>
-  <si>
-    <t>Arrangement France-Québec (art L 4111-3-1 CSP)</t>
-  </si>
-  <si>
-    <t>AM22</t>
-  </si>
-  <si>
-    <t>Agrément Caisse Régionale d'Assurance Maladie</t>
-  </si>
-  <si>
-    <t>AM23</t>
-  </si>
-  <si>
-    <t>Agrément Ministère des anciens combattants</t>
-  </si>
-  <si>
-    <t>AM24</t>
-  </si>
-  <si>
-    <t>Exerce comme tech lab avant le 08/11/1976</t>
-  </si>
-  <si>
-    <t>AM25</t>
-  </si>
-  <si>
-    <t>Exerce comme tech lab au 29/11/1997</t>
-  </si>
-  <si>
-    <t>AM26</t>
-  </si>
-  <si>
-    <t>Exerce comme tech lab au 30/05/2013</t>
-  </si>
-  <si>
-    <t>AM27</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice UE/EEE</t>
-  </si>
-  <si>
-    <t>AM28</t>
-  </si>
-  <si>
-    <t>Autorisation d'user du titre d'Ostéopathe</t>
-  </si>
-  <si>
-    <t>AM29</t>
-  </si>
-  <si>
-    <t>Autorisation titre diététicien décision admin 86</t>
-  </si>
-  <si>
-    <t>AM30</t>
-  </si>
-  <si>
-    <t>Autorisation titre diététicien emploi permanent 86</t>
-  </si>
-  <si>
-    <t>AM31</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice de psychologue diplôme étranger</t>
-  </si>
-  <si>
-    <t>AM32</t>
-  </si>
-  <si>
-    <t>Autorisation préfectorale d'exercice de psychologue décret 90-259</t>
-  </si>
-  <si>
-    <t>AM33</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice de psychothérapeute pour médecin spécialisé psychiatrie</t>
-  </si>
-  <si>
-    <t>AM34</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice d'audioprothésiste médecin</t>
-  </si>
-  <si>
-    <t>AM35</t>
-  </si>
-  <si>
-    <t>Autorisation d'user du titre de Chiropraxie</t>
-  </si>
-  <si>
-    <t>AM36</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice d'épithésiste pour chirurgien-dentiste</t>
-  </si>
-  <si>
-    <t>AM37</t>
-  </si>
-  <si>
-    <t>Autorisation épithésiste pour médecin stomatologue ou chirurgie maxillo-faciale</t>
-  </si>
-  <si>
-    <t>AM38</t>
-  </si>
-  <si>
-    <t>Arrêté de nomination de MER du Secteur Public</t>
-  </si>
-  <si>
-    <t>AM39</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice psychothérapeute médecin</t>
-  </si>
-  <si>
-    <t>AM41</t>
-  </si>
-  <si>
-    <t>Agrément de radiophysicien avant le 28/11/2004</t>
   </si>
   <si>
     <t>System URI</t>
@@ -365,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -471,28 +462,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -502,7 +485,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -514,194 +497,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J171-TypeAutorisation-EPARS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J171-TypeAutorisation-EPARS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -75,157 +75,154 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
-    <t>Jurisdiction</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Types d'autorisation d'exercice pour EPARS</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>AM01</t>
+  </si>
+  <si>
+    <t>Autorisation de plein exercice</t>
+  </si>
+  <si>
+    <t>AM14</t>
+  </si>
+  <si>
+    <t>Arrangement France-Québec (art L 4111-3-1 CSP)</t>
+  </si>
+  <si>
+    <t>AM22</t>
+  </si>
+  <si>
+    <t>Agrément Caisse Régionale d'Assurance Maladie</t>
+  </si>
+  <si>
+    <t>AM23</t>
+  </si>
+  <si>
+    <t>Agrément Ministère des anciens combattants</t>
+  </si>
+  <si>
+    <t>AM24</t>
+  </si>
+  <si>
+    <t>Exerce comme tech lab avant le 08/11/1976</t>
+  </si>
+  <si>
+    <t>AM25</t>
+  </si>
+  <si>
+    <t>Exerce comme tech lab au 29/11/1997</t>
+  </si>
+  <si>
+    <t>AM26</t>
+  </si>
+  <si>
+    <t>Exerce comme tech lab au 30/05/2013</t>
+  </si>
+  <si>
+    <t>AM27</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice UE/EEE</t>
+  </si>
+  <si>
+    <t>AM28</t>
+  </si>
+  <si>
+    <t>Autorisation d'user du titre d'Ostéopathe</t>
+  </si>
+  <si>
+    <t>AM29</t>
+  </si>
+  <si>
+    <t>Autorisation titre diététicien décision admin 86</t>
+  </si>
+  <si>
+    <t>AM30</t>
+  </si>
+  <si>
+    <t>Autorisation titre diététicien emploi permanent 86</t>
+  </si>
+  <si>
+    <t>AM31</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice de psychologue diplôme étranger</t>
+  </si>
+  <si>
+    <t>AM32</t>
+  </si>
+  <si>
+    <t>Autorisation préfectorale d'exercice de psychologue décret 90-259</t>
+  </si>
+  <si>
+    <t>AM33</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice de psychothérapeute pour médecin spécialisé psychiatrie</t>
+  </si>
+  <si>
+    <t>AM34</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice d'audioprothésiste médecin</t>
+  </si>
+  <si>
+    <t>AM35</t>
+  </si>
+  <si>
+    <t>Autorisation d'user du titre de Chiropraxie</t>
+  </si>
+  <si>
+    <t>AM36</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice d'épithésiste pour chirurgien-dentiste</t>
+  </si>
+  <si>
+    <t>AM37</t>
+  </si>
+  <si>
+    <t>Autorisation épithésiste pour médecin stomatologue ou chirurgie maxillo-faciale</t>
+  </si>
+  <si>
+    <t>AM38</t>
+  </si>
+  <si>
+    <t>Arrêté de nomination de MER du Secteur Public</t>
+  </si>
+  <si>
+    <t>AM39</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice psychothérapeute médecin</t>
+  </si>
+  <si>
+    <t>AM41</t>
+  </si>
+  <si>
+    <t>Agrément de radiophysicien avant le 28/11/2004</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Types d'autorisation d'exercice pour EPARS</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>AM01</t>
-  </si>
-  <si>
-    <t>Autorisation de plein exercice</t>
-  </si>
-  <si>
-    <t>AM14</t>
-  </si>
-  <si>
-    <t>Arrangement France-Québec (art L 4111-3-1 CSP)</t>
-  </si>
-  <si>
-    <t>AM22</t>
-  </si>
-  <si>
-    <t>Agrément Caisse Régionale d'Assurance Maladie</t>
-  </si>
-  <si>
-    <t>AM23</t>
-  </si>
-  <si>
-    <t>Agrément Ministère des anciens combattants</t>
-  </si>
-  <si>
-    <t>AM24</t>
-  </si>
-  <si>
-    <t>Exerce comme tech lab avant le 08/11/1976</t>
-  </si>
-  <si>
-    <t>AM25</t>
-  </si>
-  <si>
-    <t>Exerce comme tech lab au 29/11/1997</t>
-  </si>
-  <si>
-    <t>AM26</t>
-  </si>
-  <si>
-    <t>Exerce comme tech lab au 30/05/2013</t>
-  </si>
-  <si>
-    <t>AM27</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice UE/EEE</t>
-  </si>
-  <si>
-    <t>AM28</t>
-  </si>
-  <si>
-    <t>Autorisation d'user du titre d'Ostéopathe</t>
-  </si>
-  <si>
-    <t>AM29</t>
-  </si>
-  <si>
-    <t>Autorisation titre diététicien décision admin 86</t>
-  </si>
-  <si>
-    <t>AM30</t>
-  </si>
-  <si>
-    <t>Autorisation titre diététicien emploi permanent 86</t>
-  </si>
-  <si>
-    <t>AM31</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice de psychologue diplôme étranger</t>
-  </si>
-  <si>
-    <t>AM32</t>
-  </si>
-  <si>
-    <t>Autorisation préfectorale d'exercice de psychologue décret 90-259</t>
-  </si>
-  <si>
-    <t>AM33</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice de psychothérapeute pour médecin spécialisé psychiatrie</t>
-  </si>
-  <si>
-    <t>AM34</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice d'audioprothésiste médecin</t>
-  </si>
-  <si>
-    <t>AM35</t>
-  </si>
-  <si>
-    <t>Autorisation d'user du titre de Chiropraxie</t>
-  </si>
-  <si>
-    <t>AM36</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice d'épithésiste pour chirurgien-dentiste</t>
-  </si>
-  <si>
-    <t>AM37</t>
-  </si>
-  <si>
-    <t>Autorisation épithésiste pour médecin stomatologue ou chirurgie maxillo-faciale</t>
-  </si>
-  <si>
-    <t>AM38</t>
-  </si>
-  <si>
-    <t>Arrêté de nomination de MER du Secteur Public</t>
-  </si>
-  <si>
-    <t>AM39</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice psychothérapeute médecin</t>
-  </si>
-  <si>
-    <t>AM41</t>
-  </si>
-  <si>
-    <t>Agrément de radiophysicien avant le 28/11/2004</t>
   </si>
   <si>
     <t>System URI</t>
@@ -365,7 +362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -471,28 +468,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -514,194 +503,194 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J171-TypeAutorisation-EPARS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J171-TypeAutorisation-EPARS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T12:00:00+01:00</t>
+    <t>2025-01-31T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -177,7 +177,7 @@
     <t>AM33</t>
   </si>
   <si>
-    <t>Autorisation d'exercice de psychothérapeute pour médecin spécialisé psychiatrie</t>
+    <t>Docteur en médecine spécialité psychiatrie</t>
   </si>
   <si>
     <t>AM34</t>
@@ -213,13 +213,19 @@
     <t>AM39</t>
   </si>
   <si>
-    <t>Autorisation d'exercice psychothérapeute médecin</t>
+    <t>Docteur en médecine + formation + stage</t>
   </si>
   <si>
     <t>AM41</t>
   </si>
   <si>
     <t>Agrément de radiophysicien avant le 28/11/2004</t>
+  </si>
+  <si>
+    <t>AM42</t>
+  </si>
+  <si>
+    <t>Autorisation d'user du titre de Psychothérapeute</t>
   </si>
   <si>
     <t/>
@@ -491,7 +497,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -682,15 +688,23 @@
         <v>69</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>71</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
